--- a/docs/2.项目规划/《游趣》项目_测试用例.xlsx
+++ b/docs/2.项目规划/《游趣》项目_测试用例.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="2568" windowWidth="14772" windowHeight="4560"/>
+    <workbookView xWindow="310" yWindow="2570" windowWidth="14770" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="482">
   <si>
     <t>用例ＩＤ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1778,12 +1778,171 @@
   <si>
     <t>1、点击评论按钮</t>
   </si>
+  <si>
+    <t>存在数据库</t>
+  </si>
+  <si>
+    <t>1、输入少于100个汉字
+2、输入超过1000汉字
+3、点击提交</t>
+  </si>
+  <si>
+    <t>空，汉字，英文</t>
+  </si>
+  <si>
+    <t>输入空的内容，确定能否添加</t>
+  </si>
+  <si>
+    <t>输入空的内容，确定不能添加</t>
+  </si>
+  <si>
+    <t>登录状态下可以发表</t>
+  </si>
+  <si>
+    <t>是否正确跳转页面</t>
+  </si>
+  <si>
+    <t>正确跳转页面</t>
+  </si>
+  <si>
+    <t>未登录</t>
+  </si>
+  <si>
+    <t>提示用户登录</t>
+  </si>
+  <si>
+    <t>不登录效果</t>
+  </si>
+  <si>
+    <t>不登录效果，不能添加</t>
+  </si>
+  <si>
+    <t>跳转到登录页面</t>
+  </si>
+  <si>
+    <t>+发布动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态下，发表文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态下，拍摄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态下，发表图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录状态下，发表问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍摄视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加照片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入问题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、输入少于100个汉字
+2、输入超过1000汉字
+3、点击提交，正确完成</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、拍摄视频
+2 、发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、拍摄0,1,5,10张图片 
+2 、发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、拍摄0,1,5,10张图片 
+2 、能够发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、拍摄视频
+2、 能够发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上传0,1,5,10张图片 
+2 、发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上传视频
+2 、发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上传0,1,5,10张图片 
+2 、能够发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、上传视频
+2、 能够发表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个人主页可以显示发表内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现页面（动态页）可以显示发表内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否成功显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1816,6 +1975,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1825,6 +1985,14 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1877,7 +2045,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1911,6 +2079,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2214,25 +2391,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H123"/>
+  <dimension ref="A1:H133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="40" style="2" customWidth="1"/>
-    <col min="7" max="7" width="38.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="46.21875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.7265625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.7265625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2546,8 +2723,8 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>8</v>
+      <c r="A13" s="1">
+        <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>340</v>
@@ -2572,8 +2749,8 @@
       </c>
     </row>
     <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <v>3</v>
+      <c r="A14" s="1">
+        <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>340</v>
@@ -2598,8 +2775,8 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <v>4</v>
+      <c r="A15" s="1">
+        <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>340</v>
@@ -2624,8 +2801,8 @@
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
-        <v>5</v>
+      <c r="A16" s="1">
+        <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>340</v>
@@ -2650,8 +2827,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <v>6</v>
+      <c r="A17" s="1">
+        <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>340</v>
@@ -2676,8 +2853,8 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
-        <v>7</v>
+      <c r="A18" s="1">
+        <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>340</v>
@@ -2702,8 +2879,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
-        <v>8</v>
+      <c r="A19" s="1">
+        <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>340</v>
@@ -2728,8 +2905,8 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <v>9</v>
+      <c r="A20" s="1">
+        <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>340</v>
@@ -2754,8 +2931,8 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <v>10</v>
+      <c r="A21" s="1">
+        <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>340</v>
@@ -2780,8 +2957,8 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <v>11</v>
+      <c r="A22" s="1">
+        <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>340</v>
@@ -2806,8 +2983,8 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>12</v>
+      <c r="A23" s="1">
+        <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>340</v>
@@ -2832,8 +3009,8 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6">
-        <v>13</v>
+      <c r="A24" s="1">
+        <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>340</v>
@@ -2858,8 +3035,8 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>14</v>
+      <c r="A25" s="1">
+        <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>340</v>
@@ -2976,7 +3153,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -3002,7 +3179,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
@@ -3028,7 +3205,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="9">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
@@ -3054,7 +3231,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="9">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
@@ -3080,7 +3257,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="9">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
@@ -3106,7 +3283,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
@@ -3132,7 +3309,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
@@ -3158,7 +3335,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
@@ -3184,7 +3361,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -3210,7 +3387,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
@@ -3234,7 +3411,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -3260,7 +3437,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="9">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
@@ -3286,7 +3463,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -3312,7 +3489,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="9">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
@@ -3338,7 +3515,7 @@
       </c>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -3364,7 +3541,7 @@
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
@@ -3390,7 +3567,7 @@
       </c>
     </row>
     <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -3416,7 +3593,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="9">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
@@ -3440,7 +3617,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="9">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -3467,1240 +3644,1245 @@
     </row>
     <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>74</v>
+        <v>457</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>79</v>
+        <v>456</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>71</v>
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>75</v>
+        <v>461</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>84</v>
+        <v>470</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>81</v>
+        <v>466</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>71</v>
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>74</v>
+        <v>458</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>83</v>
+        <v>462</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>86</v>
+        <v>469</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>468</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>87</v>
+        <v>472</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
-        <v>50</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>74</v>
+        <v>460</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>91</v>
+        <v>464</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
-        <v>51</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>71</v>
+        <v>52</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>93</v>
+        <v>463</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>473</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>94</v>
+        <v>466</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>95</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>71</v>
+        <v>53</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>74</v>
+        <v>459</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>91</v>
+        <v>465</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>73</v>
+        <v>477</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>74</v>
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>101</v>
+        <v>478</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>33</v>
+        <v>480</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>104</v>
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>108</v>
+        <v>57</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3" t="s">
-        <v>112</v>
+        <v>75</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>141</v>
+        <v>76</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3" t="s">
-        <v>117</v>
+        <v>84</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="2" t="s">
-        <v>120</v>
+        <v>85</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>121</v>
+        <v>88</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="2" t="s">
-        <v>124</v>
+        <v>83</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>127</v>
+        <v>92</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>129</v>
+        <v>96</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>112</v>
+        <v>97</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>133</v>
+        <v>83</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>134</v>
+        <v>100</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>135</v>
+        <v>83</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>136</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>137</v>
+        <v>100</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>139</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>142</v>
+        <v>105</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>144</v>
+        <v>106</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>107</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>155</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>146</v>
+        <v>110</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>148</v>
+        <v>111</v>
+      </c>
+      <c r="G69" s="3"/>
+      <c r="H69" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>339</v>
+        <v>113</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>111</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="G70" s="3"/>
       <c r="H70" s="3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H71" s="3" t="s">
-        <v>152</v>
+        <v>119</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>150</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G72" s="3"/>
       <c r="H72" s="2" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>154</v>
+        <v>126</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="F74" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>173</v>
+        <v>130</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G74" s="3"/>
+      <c r="H74" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>112</v>
+        <v>130</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F78" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F79" s="3" t="s">
-        <v>166</v>
+        <v>146</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>169</v>
+        <v>149</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>339</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>177</v>
+        <v>132</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>189</v>
+        <v>158</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>112</v>
+        <v>162</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>197</v>
+        <v>129</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>199</v>
+        <v>111</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>200</v>
+        <v>112</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>190</v>
+        <v>131</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>193</v>
+        <v>132</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>205</v>
+        <v>137</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>201</v>
+        <v>339</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>206</v>
+        <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G91" s="3"/>
+        <v>176</v>
+      </c>
       <c r="H91" s="2" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G92" s="3" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>70</v>
+        <v>131</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>33</v>
+        <v>132</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G94" s="2" t="s">
-        <v>221</v>
+        <v>185</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>224</v>
+        <v>186</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>226</v>
+        <v>129</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F96" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>228</v>
+        <v>184</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>225</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>229</v>
+        <v>197</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>231</v>
+        <v>198</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>229</v>
+        <v>190</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>233</v>
+        <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>227</v>
+        <v>191</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>236</v>
+        <v>196</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>201</v>
@@ -4709,433 +4891,439 @@
         <v>204</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>246</v>
+        <v>202</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>247</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G101" s="3"/>
       <c r="H101" s="2" t="s">
-        <v>248</v>
+        <v>210</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>112</v>
+        <v>212</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>201</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>249</v>
+        <v>70</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G103" s="3"/>
+        <v>218</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>220</v>
+      </c>
       <c r="H103" s="3" t="s">
-        <v>252</v>
+        <v>33</v>
       </c>
     </row>
     <row r="104" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>255</v>
+        <v>70</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>259</v>
+        <v>219</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G105" s="3"/>
+        <v>223</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>224</v>
+      </c>
       <c r="H105" s="2" t="s">
-        <v>263</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>265</v>
+        <v>241</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>270</v>
+        <v>229</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>272</v>
+        <v>229</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="F108" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="G108" s="3"/>
+        <v>227</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="H108" s="2" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>269</v>
+        <v>213</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>131</v>
+        <v>234</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>278</v>
+        <v>237</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>134</v>
+        <v>239</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>276</v>
+        <v>227</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3" t="s">
-        <v>280</v>
+        <v>243</v>
+      </c>
+      <c r="H110" s="2" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3" t="s">
-        <v>284</v>
+        <v>247</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>285</v>
+        <v>109</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>289</v>
+        <v>111</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>268</v>
+        <v>201</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>281</v>
+        <v>204</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H113" s="2" t="s">
-        <v>292</v>
+        <v>251</v>
+      </c>
+      <c r="G113" s="3"/>
+      <c r="H113" s="3" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>303</v>
+        <v>258</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H114" s="2" t="s">
-        <v>304</v>
+        <v>257</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" s="2" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>300</v>
+        <v>266</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>268</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G117" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>292</v>
+        <v>269</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>268</v>
@@ -5144,138 +5332,387 @@
         <v>269</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>309</v>
+        <v>273</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="G118" s="3"/>
+      <c r="H118" s="2" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>312</v>
+        <v>131</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>314</v>
+        <v>276</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G119" s="3"/>
-      <c r="H119" s="2" t="s">
-        <v>317</v>
+        <v>277</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>316</v>
+        <v>279</v>
       </c>
       <c r="G120" s="3"/>
-      <c r="H120" s="2" t="s">
-        <v>318</v>
+      <c r="H120" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>319</v>
+        <v>282</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>321</v>
-      </c>
+        <v>283</v>
+      </c>
+      <c r="G121" s="3"/>
       <c r="H121" s="3" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>323</v>
+        <v>285</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>324</v>
+        <v>287</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>288</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>325</v>
+        <v>289</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F125" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G125" s="3"/>
+      <c r="H125" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G126" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G127" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="C129" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G129" s="3"/>
+      <c r="H129" s="2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G130" s="3"/>
+      <c r="H130" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D132" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="E133" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F133" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G133" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H123" s="3" t="s">
+      <c r="H133" s="3" t="s">
         <v>327</v>
       </c>
     </row>

--- a/docs/2.项目规划/《游趣》项目_测试用例.xlsx
+++ b/docs/2.项目规划/《游趣》项目_测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="310" yWindow="2570" windowWidth="14770" windowHeight="4560"/>
+    <workbookView xWindow="315" yWindow="2565" windowWidth="14775" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="875" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="497">
   <si>
     <t>用例ＩＤ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1937,11 +1937,74 @@
     <t>正确显示</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>收藏按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏按钮正常显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击收藏按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功收藏，并添加至我的收藏列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发按钮正常显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击转发
+2、输入转发时需添加的文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入转发时要加的文字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>转发成功，并添加至我的游记列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>定位功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示定位信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击定位图标
+2、点击切换城市
+3、点击相应城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功显示相应城市天气信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞按钮正常显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1995,7 +2058,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2014,8 +2077,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2038,6 +2107,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2045,7 +2129,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2089,6 +2173,24 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2099,6 +2201,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2147,7 +2252,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2180,9 +2285,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2215,6 +2337,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2391,28 +2530,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H133"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H58" sqref="H58"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.90625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.7265625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.08984375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.7265625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.90625" style="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2438,7 +2577,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2462,7 +2601,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2488,7 +2627,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2514,7 +2653,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2540,7 +2679,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2566,7 +2705,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2592,7 +2731,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2618,7 +2757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2644,85 +2783,85 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:8" s="15" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="16" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2748,7 +2887,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2774,7 +2913,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2800,7 +2939,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2826,7 +2965,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2852,7 +2991,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2878,7 +3017,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2904,7 +3043,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2930,7 +3069,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2956,7 +3095,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2982,7 +3121,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3008,7 +3147,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3034,7 +3173,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -3060,7 +3199,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -3083,7 +3222,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -3106,7 +3245,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -3129,7 +3268,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -3152,59 +3291,56 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="G30" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="H30" s="11" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="G31" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="H31" s="10" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="11" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -3215,22 +3351,22 @@
         <v>382</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E32" s="9" t="s">
         <v>384</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H32" s="10" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -3253,10 +3389,10 @@
         <v>379</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -3267,22 +3403,22 @@
         <v>382</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>379</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -3293,48 +3429,48 @@
         <v>382</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>396</v>
+        <v>379</v>
       </c>
       <c r="G35" s="11" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>399</v>
+        <v>381</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>400</v>
+        <v>382</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>383</v>
+        <v>394</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>402</v>
+        <v>395</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>396</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3345,22 +3481,22 @@
         <v>400</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>392</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>379</v>
+        <v>401</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>402</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="H37" s="10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H37" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3371,22 +3507,22 @@
         <v>400</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>405</v>
-      </c>
-      <c r="G38" s="10" t="s">
         <v>379</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G38" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3397,20 +3533,22 @@
         <v>400</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="11" t="s">
-        <v>408</v>
+        <v>404</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>379</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3421,48 +3559,46 @@
         <v>400</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>410</v>
-      </c>
+        <v>407</v>
+      </c>
+      <c r="E40" s="9"/>
       <c r="F40" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>412</v>
+        <v>399</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>413</v>
+        <v>400</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>414</v>
+        <v>394</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="G41" s="11" t="s">
-        <v>379</v>
+        <v>411</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3473,22 +3609,22 @@
         <v>413</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>379</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3499,22 +3635,22 @@
         <v>413</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="G43" s="11" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3525,48 +3661,48 @@
         <v>413</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G44" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="H44" s="10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>397</v>
+      </c>
+      <c r="H44" s="11" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>431</v>
+        <v>412</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>432</v>
+        <v>413</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>379</v>
+        <v>429</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3577,22 +3713,22 @@
         <v>432</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="E46" s="9" t="s">
         <v>434</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="H46" s="11" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3603,20 +3739,22 @@
         <v>432</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="11" t="s">
-        <v>408</v>
+        <v>437</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>438</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>379</v>
+        <v>439</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3627,100 +3765,100 @@
         <v>432</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>394</v>
+        <v>407</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>441</v>
+        <v>496</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>408</v>
       </c>
       <c r="G48" s="11" t="s">
-        <v>397</v>
+        <v>379</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="G49" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="G49" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>482</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>483</v>
+      </c>
+      <c r="F50" s="19" t="s">
+        <v>484</v>
+      </c>
+      <c r="G50" s="20" t="s">
+        <v>491</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>442</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="18" t="s">
+        <v>431</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>486</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="F51" s="19" t="s">
+        <v>488</v>
+      </c>
+      <c r="G51" s="20" t="s">
+        <v>489</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -3728,25 +3866,25 @@
         <v>455</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>442</v>
       </c>
       <c r="F52" s="13" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="H52" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -3754,25 +3892,25 @@
         <v>455</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>442</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>466</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -3780,103 +3918,103 @@
         <v>455</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>442</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="G54" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="G54" s="3" t="s">
         <v>468</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C55" s="12" t="s">
-        <v>447</v>
+      <c r="C55" s="1" t="s">
+        <v>460</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F55" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H55" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F55" s="13" t="s">
+        <v>445</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C56" s="12" t="s">
-        <v>447</v>
+      <c r="C56" s="1" t="s">
+        <v>459</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>442</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>479</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>455</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>451</v>
+      <c r="C57" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>465</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F57" s="13" t="s">
-        <v>452</v>
+      <c r="F57" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>480</v>
-      </c>
-      <c r="H57" s="13" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>468</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -3884,103 +4022,103 @@
         <v>455</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>450</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>454</v>
+        <v>447</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>477</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F58" s="13" t="s">
-        <v>448</v>
+      <c r="F58" s="3" t="s">
+        <v>479</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H58" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>74</v>
+      <c r="B59" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>447</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>75</v>
+        <v>478</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>442</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>77</v>
+        <v>479</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>452</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>85</v>
+      <c r="B61" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="C61" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>448</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>480</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -3991,22 +4129,22 @@
         <v>74</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -4017,22 +4155,22 @@
         <v>74</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -4043,22 +4181,22 @@
         <v>74</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="F64" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="G64" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F64" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -4069,22 +4207,22 @@
         <v>74</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E65" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -4095,22 +4233,22 @@
         <v>74</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -4121,22 +4259,22 @@
         <v>74</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>83</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -4144,22 +4282,25 @@
         <v>71</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -4167,118 +4308,122 @@
         <v>71</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>123</v>
+        <v>110</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="G72" s="3"/>
-      <c r="H72" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H72" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>339</v>
+        <v>113</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>114</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>125</v>
+        <v>141</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>115</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>127</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -4289,20 +4434,20 @@
         <v>114</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="G74" s="3"/>
-      <c r="H74" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H74" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -4313,19 +4458,20 @@
         <v>114</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+      <c r="G75" s="3"/>
+      <c r="H75" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -4336,19 +4482,19 @@
         <v>114</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -4359,19 +4505,20 @@
         <v>114</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -4379,22 +4526,22 @@
         <v>339</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>144</v>
+        <v>130</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -4402,22 +4549,22 @@
         <v>339</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -4425,22 +4572,22 @@
         <v>339</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -4451,19 +4598,19 @@
         <v>140</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>132</v>
+        <v>143</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -4474,19 +4621,19 @@
         <v>140</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>150</v>
+        <v>146</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -4497,19 +4644,19 @@
         <v>140</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F83" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -4520,19 +4667,19 @@
         <v>140</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -4540,22 +4687,22 @@
         <v>339</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -4563,22 +4710,22 @@
         <v>339</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>162</v>
+        <v>149</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>151</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -4586,22 +4733,22 @@
         <v>339</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -4612,19 +4759,19 @@
         <v>156</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>132</v>
+        <v>158</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>144</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -4635,19 +4782,19 @@
         <v>156</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>162</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -4658,19 +4805,19 @@
         <v>156</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="F90" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F90" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -4681,88 +4828,88 @@
         <v>156</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>178</v>
+        <v>339</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -4773,19 +4920,19 @@
         <v>179</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>137</v>
+        <v>180</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -4796,19 +4943,19 @@
         <v>179</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F96" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -4819,19 +4966,19 @@
         <v>179</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>197</v>
+        <v>134</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -4839,22 +4986,22 @@
         <v>178</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -4862,98 +5009,94 @@
         <v>178</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>190</v>
+        <v>129</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>204</v>
+        <v>179</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="H100" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>198</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="G101" s="3"/>
+        <v>192</v>
+      </c>
       <c r="H101" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="1">
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>215</v>
+        <v>195</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>194</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -4961,25 +5104,22 @@
         <v>201</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>70</v>
+        <v>205</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -4987,25 +5127,23 @@
         <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>70</v>
+        <v>208</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="G104" s="2" t="s">
-        <v>221</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="G104" s="3"/>
       <c r="H104" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -5016,22 +5154,22 @@
         <v>213</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>224</v>
+        <v>212</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>215</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -5042,22 +5180,22 @@
         <v>213</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>226</v>
+        <v>70</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="G106" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>220</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -5068,22 +5206,22 @@
         <v>213</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>229</v>
+        <v>70</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>240</v>
+        <v>219</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -5094,22 +5232,22 @@
         <v>213</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -5120,22 +5258,22 @@
         <v>213</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -5143,22 +5281,25 @@
         <v>201</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>227</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>243</v>
+        <v>240</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -5166,22 +5307,25 @@
         <v>201</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>247</v>
+        <v>238</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>232</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -5189,22 +5333,25 @@
         <v>201</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>109</v>
+        <v>234</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -5215,160 +5362,162 @@
         <v>204</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>243</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="1">
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="1">
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="1">
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>253</v>
+        <v>201</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>265</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="G116" s="3"/>
       <c r="H116" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="1">
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="1">
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" s="2" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="1">
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>277</v>
+        <v>266</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>265</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -5379,20 +5528,16 @@
         <v>269</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="F120" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>269</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -5403,20 +5548,20 @@
         <v>269</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>283</v>
+        <v>273</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>274</v>
       </c>
       <c r="G121" s="3"/>
-      <c r="H121" s="3" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H121" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -5424,25 +5569,22 @@
         <v>268</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>285</v>
+        <v>131</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -5450,25 +5592,23 @@
         <v>268</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>285</v>
+        <v>134</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G123" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+      <c r="G123" s="3"/>
+      <c r="H123" s="3" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -5476,25 +5616,23 @@
         <v>268</v>
       </c>
       <c r="C124" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D124" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>285</v>
-      </c>
       <c r="E124" s="1" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>283</v>
+      </c>
+      <c r="G124" s="3"/>
+      <c r="H124" s="3" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -5502,23 +5640,25 @@
         <v>268</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="F125" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G125" s="3"/>
+        <v>286</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>288</v>
+      </c>
       <c r="H125" s="2" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -5526,25 +5666,25 @@
         <v>268</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="G126" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="H126" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>290</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -5552,25 +5692,25 @@
         <v>268</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G127" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H127" s="3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -5581,93 +5721,98 @@
         <v>269</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G128" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="H128" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>294</v>
+      </c>
+      <c r="F128" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="G128" s="3"/>
+      <c r="H128" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="1">
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>314</v>
+        <v>294</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G129" s="3"/>
-      <c r="H129" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="G129" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="1">
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>315</v>
+        <v>294</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="G130" s="3"/>
-      <c r="H130" s="2" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="1">
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>321</v>
+        <v>69</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>308</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -5678,19 +5823,20 @@
         <v>311</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>324</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="G132" s="3"/>
       <c r="H132" s="2" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -5698,21 +5844,91 @@
         <v>310</v>
       </c>
       <c r="C133" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G133" s="3"/>
+      <c r="H133" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C136" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="D133" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="E136" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="F133" s="3" t="s">
+      <c r="F136" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G133" s="3" t="s">
+      <c r="G136" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="H133" s="3" t="s">
+      <c r="H136" s="3" t="s">
         <v>327</v>
       </c>
     </row>

--- a/docs/2.项目规划/《游趣》项目_测试用例.xlsx
+++ b/docs/2.项目规划/《游趣》项目_测试用例.xlsx
@@ -2533,8 +2533,8 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3807,7 +3807,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="1">
+      <c r="A50" s="15">
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
@@ -3833,7 +3833,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+      <c r="A51" s="15">
         <v>50</v>
       </c>
       <c r="B51" s="18" t="s">

--- a/docs/2.项目规划/《游趣》项目_测试用例.xlsx
+++ b/docs/2.项目规划/《游趣》项目_测试用例.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="312" yWindow="2568" windowWidth="14772" windowHeight="4560"/>
+    <workbookView xWindow="310" yWindow="2570" windowWidth="14770" windowHeight="4560"/>
   </bookViews>
   <sheets>
     <sheet name="功能测试" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="540">
   <si>
     <t>用例ＩＤ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -467,12 +467,6 @@
   </si>
   <si>
     <t>点击相应板块出现相应内容</t>
-  </si>
-  <si>
-    <t>同城（发现）</t>
-  </si>
-  <si>
-    <t>同城页信息</t>
   </si>
   <si>
     <t>发帖人</t>
@@ -1830,6 +1824,371 @@
   <si>
     <t>1、若该推荐信息为轮播图，则前台显示的图片为选中的图片；
 2、若该推荐信息为热点列表，则前台显示的缩略图为选中的图片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在该用户</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开用户首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在收藏信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击收藏按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示收藏列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击设置图标</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入设置页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对用户的某一信息进行修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的内容
+符合规则的内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功提交反馈信息到后台管理系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于我们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击关于我们</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示开发人员信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入用户首页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户基本信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击用户头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示用户头像、用户名、性别、地址、生日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击用户头像
+2、点击头像
+3、选择图片文件
+4、上传</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功上传并显示到我的头像中</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改性别</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的地址信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择删除该地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，将该地址从我的地址列表中删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的（用户）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示用户头像、用户名、性别、关注量、粉丝量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游记列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在游记</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开游记按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示游记列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>获赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点开获赞选项
+2、查看获赞个数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜欢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在游记 相册 视频等</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.点开发现页
+2、点赞动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点赞</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示点赞过的动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示获赞的动态</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>相册列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>存在相册</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点开相册按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示相册列表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改个人信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入个人信息修改页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题反馈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除缓存</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击意见反馈
+2、输入反馈内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入反馈内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击清除缓存</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>清除缓存</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击昵称输入框
+2、输入昵称
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入重复的昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示“昵称重复”</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入个人资料设置页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击性别
+2、选择性别
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击常住地
+2、选择地址
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击常住地
+2、对原有地址进行修改
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击常住地
+2、选择删除某一原有地址
+3、确认删除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改邮箱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击邮箱
+2、输入邮箱
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的邮箱信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击邮箱
+2、对原有邮箱进行修改
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击手机号
+2、输入手机号
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入正确的手机号信息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击手机号
+2、对原有手机号进行修改
+3、确认</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>进入用户主页</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同游（发现）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>同游页信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -1967,7 +2326,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2037,6 +2396,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2343,25 +2705,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A141" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J136" sqref="J136"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.77734375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="18.109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="24.77734375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.81640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="24.81640625" style="2" customWidth="1"/>
     <col min="9" max="9" width="9" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="10" max="16384" width="8.90625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="5" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -2597,7 +2959,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" s="15" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="15" t="s">
@@ -2623,7 +2985,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="15" t="s">
@@ -2649,7 +3011,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="15" t="s">
@@ -3115,16 +3477,16 @@
         <v>54</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>231</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3158,25 +3520,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>538</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D32" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="F32" s="10" t="s">
         <v>121</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F32" s="10" t="s">
-        <v>123</v>
       </c>
       <c r="G32" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3184,25 +3546,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>119</v>
+        <v>538</v>
       </c>
       <c r="C33" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="F33" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G33" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -3210,25 +3572,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>119</v>
+        <v>538</v>
       </c>
       <c r="C34" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>122</v>
-      </c>
       <c r="F34" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G34" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="60" customHeight="1" x14ac:dyDescent="0.25">
@@ -3236,16 +3598,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>119</v>
+        <v>538</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>120</v>
+        <v>539</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F35" s="10" t="s">
         <v>117</v>
@@ -3254,7 +3616,7 @@
         <v>117</v>
       </c>
       <c r="H35" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
@@ -3262,25 +3624,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>119</v>
+        <v>538</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>120</v>
+        <v>539</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="G36" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="H36" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="G36" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3288,25 +3650,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="F37" s="11" t="s">
         <v>138</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>140</v>
       </c>
       <c r="G37" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H37" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3314,16 +3676,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F38" s="10" t="s">
         <v>117</v>
@@ -3332,7 +3694,7 @@
         <v>117</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3340,25 +3702,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3366,23 +3728,23 @@
         <v>39</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>117</v>
       </c>
       <c r="H40" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3390,25 +3752,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3416,25 +3778,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D42" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="F42" s="11" t="s">
         <v>152</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="F42" s="11" t="s">
-        <v>154</v>
       </c>
       <c r="G42" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H42" s="11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3442,25 +3804,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D43" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="11" t="s">
         <v>156</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>158</v>
       </c>
       <c r="G43" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H43" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3468,25 +3830,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D44" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F44" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="G44" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="H44" s="11" t="s">
         <v>161</v>
-      </c>
-      <c r="F44" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="G44" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="H44" s="11" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3494,25 +3856,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D45" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="F45" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="G45" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="F45" s="10" t="s">
+      <c r="H45" s="10" t="s">
         <v>166</v>
-      </c>
-      <c r="G45" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H45" s="10" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3520,25 +3882,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="F46" s="10" t="s">
         <v>171</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="10" t="s">
-        <v>173</v>
       </c>
       <c r="G46" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3546,25 +3908,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C47" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="F47" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G47" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="F47" s="10" t="s">
+      <c r="H47" s="11" t="s">
         <v>176</v>
-      </c>
-      <c r="G47" s="11" t="s">
-        <v>177</v>
-      </c>
-      <c r="H47" s="11" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3572,25 +3934,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G48" s="11" t="s">
         <v>117</v>
       </c>
       <c r="H48" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3598,77 +3960,77 @@
         <v>48</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G49" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H49" s="11" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="15">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D50" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F50" s="19" t="s">
         <v>220</v>
       </c>
-      <c r="E50" s="18" t="s">
+      <c r="G50" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="H50" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="F50" s="19" t="s">
+    </row>
+    <row r="51" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>222</v>
       </c>
-      <c r="G50" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="H50" s="20" t="s">
+      <c r="E51" s="18" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" s="15" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="15">
-        <v>50</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D51" s="18" t="s">
+      <c r="F51" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="18" t="s">
+      <c r="G51" s="20" t="s">
         <v>225</v>
       </c>
-      <c r="F51" s="19" t="s">
+      <c r="H51" s="20" t="s">
         <v>226</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3676,25 +4038,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>195</v>
-      </c>
       <c r="D52" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E52" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="G52" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F52" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>182</v>
-      </c>
       <c r="H52" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3702,25 +4064,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E53" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3728,25 +4090,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E54" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3754,25 +4116,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E55" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="F55" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="G55" s="13" t="s">
+      <c r="H55" s="13" t="s">
         <v>182</v>
-      </c>
-      <c r="H55" s="13" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3780,25 +4142,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F56" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56" s="3" t="s">
         <v>211</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="H56" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3806,25 +4168,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F57" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H57" s="3" t="s">
         <v>212</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3832,25 +4194,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C58" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D58" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E58" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F58" s="3" t="s">
+      <c r="G58" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H58" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3858,25 +4220,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E59" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>217</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3884,25 +4246,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E60" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F60" s="13" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H60" s="13" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -3910,1919 +4272,2489 @@
         <v>60</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C61" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="F61" s="13" t="s">
-        <v>186</v>
-      </c>
       <c r="G61" s="2" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="21">
-        <v>105</v>
-      </c>
-      <c r="B62" s="21" t="s">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>456</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>458</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="G71" s="3"/>
+      <c r="H71" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G72" s="3"/>
+      <c r="H72" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="21" t="s">
+      <c r="E85" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="F85" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="G85" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="F62" s="22" t="s">
+      <c r="H85" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="G62" s="23" t="s">
+    </row>
+    <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C86" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>235</v>
+      </c>
+      <c r="E86" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F86" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G86" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="H62" s="23" t="s">
+      <c r="H86" s="23" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="21">
-        <v>106</v>
-      </c>
-      <c r="B63" s="21" t="s">
+    <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C87" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="21" t="s">
+      <c r="E87" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D63" s="21" t="s">
+      <c r="F87" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E63" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F63" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="G63" s="23" t="s">
+      <c r="G87" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="H63" s="23" t="s">
+      <c r="H87" s="23" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="21">
-        <v>107</v>
-      </c>
-      <c r="B64" s="21" t="s">
+    <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C88" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="21" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="21" t="s">
+      <c r="E88" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D64" s="21" t="s">
+      <c r="F88" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="E64" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F64" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="G64" s="22" t="s">
+      <c r="G88" s="22" t="s">
         <v>244</v>
       </c>
-      <c r="H64" s="23" t="s">
+      <c r="H88" s="23" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="21">
-        <v>108</v>
-      </c>
-      <c r="B65" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C65" s="21" t="s">
+    <row r="89" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C89" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="21" t="s">
+        <v>246</v>
+      </c>
+      <c r="E89" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="D65" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E65" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F65" s="22" t="s">
-        <v>239</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>246</v>
-      </c>
-      <c r="H65" s="23" t="s">
+      <c r="F89" s="22" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="21">
-        <v>109</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D66" s="21" t="s">
+      <c r="G89" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="E66" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F66" s="22" t="s">
+      <c r="H89" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="G66" s="23" t="s">
+    </row>
+    <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="H66" s="23" t="s">
+      <c r="E90" s="21"/>
+      <c r="F90" s="23" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="21">
-        <v>110</v>
-      </c>
-      <c r="B67" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="21" t="s">
+      <c r="G90" s="23"/>
+      <c r="H90" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="23" t="s">
+    </row>
+    <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="21" t="s">
         <v>253</v>
       </c>
-      <c r="G67" s="23"/>
-      <c r="H67" s="23" t="s">
+      <c r="C91" s="21" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="21">
-        <v>111</v>
-      </c>
-      <c r="B68" s="21" t="s">
+      <c r="D91" s="21" t="s">
         <v>255</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="E91" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="D68" s="21" t="s">
-        <v>257</v>
-      </c>
-      <c r="E68" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21">
-        <v>112</v>
-      </c>
-      <c r="B69" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>260</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="21">
-        <v>113</v>
-      </c>
-      <c r="B70" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C70" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D70" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E70" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>267</v>
-      </c>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="21">
-        <v>114</v>
-      </c>
-      <c r="B71" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D71" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E71" s="21"/>
-      <c r="F71" s="22" t="s">
-        <v>270</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>271</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="21">
-        <v>115</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E72" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>276</v>
-      </c>
-      <c r="H72" s="23" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="21">
-        <v>116</v>
-      </c>
-      <c r="B73" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D73" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E73" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>275</v>
-      </c>
-      <c r="G73" s="23" t="s">
-        <v>278</v>
-      </c>
-      <c r="H73" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="21">
-        <v>119</v>
-      </c>
-      <c r="B74" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D74" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="E74" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>282</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="21">
-        <v>120</v>
-      </c>
-      <c r="B75" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C75" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D75" s="21" t="s">
-        <v>280</v>
-      </c>
-      <c r="E75" s="21" t="s">
-        <v>274</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>284</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21">
-        <v>121</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C76" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="23" t="s">
-        <v>286</v>
-      </c>
-      <c r="G76" s="22"/>
-      <c r="H76" s="23" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="21">
-        <v>123</v>
-      </c>
-      <c r="B77" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D77" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="E77" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F77" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G77" s="23" t="s">
-        <v>291</v>
-      </c>
-      <c r="H77" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="21">
-        <v>124</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D78" s="21" t="s">
-        <v>288</v>
-      </c>
-      <c r="E78" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F78" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>292</v>
-      </c>
-      <c r="H78" s="23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="21">
-        <v>125</v>
-      </c>
-      <c r="B79" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>294</v>
-      </c>
-      <c r="E79" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F79" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="G79" s="23" t="s">
-        <v>296</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="21">
-        <v>126</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C80" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D80" s="21" t="s">
-        <v>297</v>
-      </c>
-      <c r="E80" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F80" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>299</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21">
-        <v>130</v>
-      </c>
-      <c r="B81" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D81" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E81" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="G81" s="23" t="s">
-        <v>301</v>
-      </c>
-      <c r="H81" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="21">
-        <v>131</v>
-      </c>
-      <c r="B82" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C82" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="D82" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="E82" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>281</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>302</v>
-      </c>
-      <c r="H82" s="23" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="21">
-        <v>132</v>
-      </c>
-      <c r="B83" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C83" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D83" s="21" t="s">
-        <v>303</v>
-      </c>
-      <c r="E83" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="F83" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" s="22" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="21">
-        <v>133</v>
-      </c>
-      <c r="B84" s="21" t="s">
-        <v>265</v>
-      </c>
-      <c r="C84" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="D84" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E84" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="21">
-        <v>164</v>
-      </c>
-      <c r="B85" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C85" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E85" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F85" s="22" t="s">
-        <v>314</v>
-      </c>
-      <c r="G85" s="23"/>
-      <c r="H85" s="23" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="21">
-        <v>165</v>
-      </c>
-      <c r="B86" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C86" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D86" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="E86" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F86" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="G86" s="22"/>
-      <c r="H86" s="23" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="21">
-        <v>166</v>
-      </c>
-      <c r="B87" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C87" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="E87" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F87" s="22" t="s">
-        <v>320</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="H87" s="23" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="21">
-        <v>167</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C88" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D88" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E88" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F88" s="22" t="s">
-        <v>324</v>
-      </c>
-      <c r="G88" s="22" t="s">
-        <v>291</v>
-      </c>
-      <c r="H88" s="22" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21">
-        <v>168</v>
-      </c>
-      <c r="B89" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D89" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="E89" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F89" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="G89" s="23" t="s">
-        <v>292</v>
-      </c>
-      <c r="H89" s="23" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="21">
-        <v>169</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C90" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="E90" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F90" s="22" t="s">
-        <v>327</v>
-      </c>
-      <c r="G90" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="H90" s="23" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="21">
-        <v>174</v>
-      </c>
-      <c r="B91" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="F91" s="22" t="s">
-        <v>329</v>
-      </c>
+      <c r="F91" s="23"/>
       <c r="G91" s="23"/>
       <c r="H91" s="23" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="21">
-        <v>175</v>
+      <c r="A92" s="1">
+        <v>91</v>
       </c>
       <c r="B92" s="21" t="s">
+        <v>253</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="D92" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E92" s="21"/>
+      <c r="F92" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="H92" s="22" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C93" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="E93" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="F93" s="23" t="s">
+        <v>265</v>
+      </c>
+      <c r="G93" s="22"/>
+      <c r="H93" s="22" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="E94" s="21"/>
+      <c r="F94" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="G94" s="22" t="s">
+        <v>269</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C95" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E95" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G95" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C96" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D96" s="21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E96" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F96" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="G96" s="23" t="s">
+        <v>276</v>
+      </c>
+      <c r="H96" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D97" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E97" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G97" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="H97" s="22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C98" s="21" t="s">
+        <v>267</v>
+      </c>
+      <c r="D98" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E98" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F98" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G98" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="H98" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C99" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D99" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="E99" s="21"/>
+      <c r="F99" s="23" t="s">
+        <v>284</v>
+      </c>
+      <c r="G99" s="22"/>
+      <c r="H99" s="23" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C100" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E100" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F100" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G100" s="23" t="s">
+        <v>289</v>
+      </c>
+      <c r="H100" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C101" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F101" s="22" t="s">
+        <v>288</v>
+      </c>
+      <c r="G101" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="H101" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C102" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="21" t="s">
+        <v>292</v>
+      </c>
+      <c r="E102" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F102" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="G102" s="23" t="s">
+        <v>294</v>
+      </c>
+      <c r="H102" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C103" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>295</v>
+      </c>
+      <c r="E103" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F103" s="22" t="s">
+        <v>296</v>
+      </c>
+      <c r="G103" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="H103" s="22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C104" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E104" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F104" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G104" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="H104" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C105" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D105" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="E105" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F105" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="G105" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="H105" s="23" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C106" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D106" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="E106" s="21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F106" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="G106" s="23"/>
+      <c r="H106" s="22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>263</v>
+      </c>
+      <c r="C107" s="21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E107" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="F107" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G107" s="22"/>
+      <c r="H107" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C108" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="21" t="s">
         <v>310</v>
       </c>
-      <c r="C92" s="21" t="s">
+      <c r="E108" s="21" t="s">
         <v>311</v>
       </c>
-      <c r="D92" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="F92" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="G92" s="23"/>
-      <c r="H92" s="23" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="21">
-        <v>176</v>
-      </c>
-      <c r="B93" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D93" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E93" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="F93" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="G93" s="23"/>
-      <c r="H93" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="21">
-        <v>177</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C94" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E94" s="21" t="s">
-        <v>332</v>
-      </c>
-      <c r="F94" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="G94" s="22"/>
-      <c r="H94" s="22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="21">
-        <v>156</v>
-      </c>
-      <c r="B95" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C95" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D95" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E95" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F95" s="22" t="s">
-        <v>341</v>
-      </c>
-      <c r="G95" s="23"/>
-      <c r="H95" s="23" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="21">
-        <v>157</v>
-      </c>
-      <c r="B96" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C96" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D96" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E96" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F96" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="G96" s="23"/>
-      <c r="H96" s="23" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="21">
-        <v>158</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C97" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D97" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E97" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F97" s="22" t="s">
-        <v>346</v>
-      </c>
-      <c r="G97" s="23"/>
-      <c r="H97" s="23" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="21">
-        <v>159</v>
-      </c>
-      <c r="B98" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C98" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D98" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="E98" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F98" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="G98" s="23"/>
-      <c r="H98" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="21">
-        <v>160</v>
-      </c>
-      <c r="B99" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C99" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D99" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E99" s="21" t="s">
-        <v>343</v>
-      </c>
-      <c r="F99" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="G99" s="23"/>
-      <c r="H99" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="21">
-        <v>161</v>
-      </c>
-      <c r="B100" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C100" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="D100" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="E100" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F100" s="23" t="s">
-        <v>352</v>
-      </c>
-      <c r="G100" s="23"/>
-      <c r="H100" s="22" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="21">
-        <v>162</v>
-      </c>
-      <c r="B101" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C101" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="D101" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E101" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F101" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="G101" s="23"/>
-      <c r="H101" s="23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="21">
-        <v>163</v>
-      </c>
-      <c r="B102" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C102" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="D102" s="21" t="s">
-        <v>354</v>
-      </c>
-      <c r="E102" s="21" t="s">
-        <v>340</v>
-      </c>
-      <c r="F102" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="G102" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="H102" s="23" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="21">
-        <v>135</v>
-      </c>
-      <c r="B103" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C103" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D103" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="E103" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="F103" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="G103" s="22"/>
-      <c r="H103" s="23" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="21">
-        <v>136</v>
-      </c>
-      <c r="B104" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C104" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D104" s="21" t="s">
-        <v>366</v>
-      </c>
-      <c r="E104" s="21" t="s">
-        <v>363</v>
-      </c>
-      <c r="F104" s="22" t="s">
-        <v>367</v>
-      </c>
-      <c r="G104" s="22"/>
-      <c r="H104" s="23" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="21">
-        <v>137</v>
-      </c>
-      <c r="B105" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C105" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D105" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="E105" s="21"/>
-      <c r="F105" s="22" t="s">
-        <v>369</v>
-      </c>
-      <c r="G105" s="23" t="s">
-        <v>370</v>
-      </c>
-      <c r="H105" s="22" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="21">
-        <v>138</v>
-      </c>
-      <c r="B106" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C106" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>306</v>
-      </c>
-      <c r="E106" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="F106" s="23" t="s">
-        <v>308</v>
-      </c>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="21">
-        <v>139</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C107" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D107" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E107" s="21" t="s">
-        <v>372</v>
-      </c>
-      <c r="F107" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="G107" s="23"/>
-      <c r="H107" s="22" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="21">
-        <v>140</v>
-      </c>
-      <c r="B108" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C108" s="21" t="s">
-        <v>361</v>
-      </c>
-      <c r="D108" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E108" s="21" t="s">
-        <v>372</v>
-      </c>
       <c r="F108" s="22" t="s">
-        <v>374</v>
+        <v>312</v>
       </c>
       <c r="G108" s="23"/>
       <c r="H108" s="23" t="s">
-        <v>375</v>
+        <v>313</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21">
-        <v>141</v>
+      <c r="A109" s="1">
+        <v>108</v>
       </c>
       <c r="B109" s="21" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>361</v>
+        <v>309</v>
       </c>
       <c r="D109" s="21" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>372</v>
+        <v>311</v>
       </c>
       <c r="F109" s="22" t="s">
-        <v>376</v>
-      </c>
-      <c r="G109" s="23"/>
+        <v>315</v>
+      </c>
+      <c r="G109" s="22"/>
       <c r="H109" s="23" t="s">
-        <v>377</v>
+        <v>316</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21">
-        <v>142</v>
+      <c r="A110" s="1">
+        <v>109</v>
       </c>
       <c r="B110" s="21" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="D110" s="21" t="s">
-        <v>379</v>
+        <v>317</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F110" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G110" s="23"/>
-      <c r="H110" s="22" t="s">
-        <v>382</v>
+        <v>311</v>
+      </c>
+      <c r="F110" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="G110" s="22" t="s">
+        <v>319</v>
+      </c>
+      <c r="H110" s="23" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="21">
-        <v>143</v>
+      <c r="A111" s="1">
+        <v>110</v>
       </c>
       <c r="B111" s="21" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="D111" s="21" t="s">
-        <v>383</v>
+        <v>321</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>380</v>
-      </c>
-      <c r="F111" s="23" t="s">
-        <v>384</v>
-      </c>
-      <c r="G111" s="23"/>
-      <c r="H111" s="23" t="s">
-        <v>385</v>
+        <v>311</v>
+      </c>
+      <c r="F111" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="G111" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="H111" s="22" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="21">
-        <v>144</v>
+      <c r="A112" s="1">
+        <v>111</v>
       </c>
       <c r="B112" s="21" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>378</v>
+        <v>314</v>
       </c>
       <c r="D112" s="21" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="F112" s="23" t="s">
+        <v>311</v>
+      </c>
+      <c r="F112" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G112" s="23" t="s">
+        <v>290</v>
+      </c>
+      <c r="H112" s="23" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="21" t="s">
         <v>308</v>
       </c>
-      <c r="G112" s="23"/>
-      <c r="H112" s="22" t="s">
+      <c r="C113" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="D113" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="E113" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="F113" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="G113" s="23" t="s">
+        <v>297</v>
+      </c>
+      <c r="H113" s="23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="C114" s="21" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="21">
-        <v>145</v>
-      </c>
-      <c r="B113" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C113" s="21" t="s">
-        <v>378</v>
-      </c>
-      <c r="D113" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E113" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="F113" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="G113" s="23"/>
-      <c r="H113" s="22" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="21">
-        <v>146</v>
-      </c>
-      <c r="B114" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="C114" s="21" t="s">
-        <v>378</v>
-      </c>
       <c r="D114" s="21" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>386</v>
+        <v>311</v>
       </c>
       <c r="F114" s="22" t="s">
-        <v>388</v>
+        <v>327</v>
       </c>
       <c r="G114" s="23"/>
       <c r="H114" s="23" t="s">
-        <v>389</v>
+        <v>328</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21">
-        <v>147</v>
+      <c r="A115" s="1">
+        <v>114</v>
       </c>
       <c r="B115" s="21" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="D115" s="21" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>386</v>
+        <v>330</v>
       </c>
       <c r="F115" s="22" t="s">
-        <v>390</v>
+        <v>331</v>
       </c>
       <c r="G115" s="23"/>
       <c r="H115" s="23" t="s">
-        <v>391</v>
+        <v>332</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="21">
-        <v>148</v>
+      <c r="A116" s="1">
+        <v>115</v>
       </c>
       <c r="B116" s="21" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>378</v>
+        <v>309</v>
       </c>
       <c r="D116" s="21" t="s">
-        <v>392</v>
+        <v>304</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>380</v>
+        <v>330</v>
       </c>
       <c r="F116" s="22" t="s">
-        <v>393</v>
+        <v>306</v>
       </c>
       <c r="G116" s="23"/>
-      <c r="H116" s="23" t="s">
-        <v>394</v>
+      <c r="H116" s="22" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="21">
-        <v>149</v>
+      <c r="A117" s="1">
+        <v>116</v>
       </c>
       <c r="B117" s="21" t="s">
-        <v>360</v>
+        <v>308</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>395</v>
+        <v>309</v>
       </c>
       <c r="D117" s="21" t="s">
-        <v>396</v>
+        <v>333</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="F117" s="23" t="s">
-        <v>381</v>
-      </c>
-      <c r="G117" s="23"/>
+        <v>330</v>
+      </c>
+      <c r="F117" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="G117" s="22"/>
       <c r="H117" s="22" t="s">
-        <v>398</v>
+        <v>335</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="21">
-        <v>150</v>
+      <c r="A118" s="1">
+        <v>117</v>
       </c>
       <c r="B118" s="21" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C118" s="21" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="D118" s="21" t="s">
-        <v>399</v>
+        <v>337</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="F118" s="23" t="s">
-        <v>384</v>
+        <v>338</v>
+      </c>
+      <c r="F118" s="22" t="s">
+        <v>339</v>
       </c>
       <c r="G118" s="23"/>
       <c r="H118" s="23" t="s">
-        <v>400</v>
+        <v>340</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="21">
-        <v>151</v>
+      <c r="A119" s="1">
+        <v>118</v>
       </c>
       <c r="B119" s="21" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C119" s="21" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="D119" s="21" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="F119" s="23" t="s">
-        <v>308</v>
+        <v>341</v>
+      </c>
+      <c r="F119" s="22" t="s">
+        <v>342</v>
       </c>
       <c r="G119" s="23"/>
-      <c r="H119" s="22" t="s">
-        <v>309</v>
+      <c r="H119" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="21">
-        <v>152</v>
+      <c r="A120" s="1">
+        <v>119</v>
       </c>
       <c r="B120" s="21" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C120" s="21" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="D120" s="21" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="F120" s="22" t="s">
         <v>344</v>
       </c>
       <c r="G120" s="23"/>
-      <c r="H120" s="22" t="s">
-        <v>402</v>
+      <c r="H120" s="23" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="21">
-        <v>153</v>
+      <c r="A121" s="1">
+        <v>120</v>
       </c>
       <c r="B121" s="21" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>335</v>
+        <v>346</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="F121" s="22" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="G121" s="23"/>
       <c r="H121" s="23" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="21">
-        <v>154</v>
+      <c r="A122" s="1">
+        <v>121</v>
       </c>
       <c r="B122" s="21" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="D122" s="21" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>401</v>
-      </c>
-      <c r="F122" s="22" t="s">
-        <v>405</v>
+        <v>341</v>
+      </c>
+      <c r="F122" s="23" t="s">
+        <v>306</v>
       </c>
       <c r="G122" s="23"/>
-      <c r="H122" s="23" t="s">
-        <v>406</v>
+      <c r="H122" s="22" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="21">
-        <v>155</v>
+      <c r="A123" s="1">
+        <v>122</v>
       </c>
       <c r="B123" s="21" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="D123" s="21" t="s">
-        <v>407</v>
+        <v>349</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>397</v>
-      </c>
-      <c r="F123" s="22" t="s">
-        <v>408</v>
+        <v>338</v>
+      </c>
+      <c r="F123" s="23" t="s">
+        <v>350</v>
       </c>
       <c r="G123" s="23"/>
-      <c r="H123" s="23" t="s">
-        <v>409</v>
+      <c r="H123" s="22" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="21">
-        <v>193</v>
+      <c r="A124" s="1">
+        <v>123</v>
       </c>
       <c r="B124" s="21" t="s">
-        <v>410</v>
+        <v>336</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>411</v>
+        <v>352</v>
       </c>
       <c r="D124" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E124" s="21"/>
-      <c r="F124" s="23" t="s">
-        <v>412</v>
+        <v>352</v>
+      </c>
+      <c r="E124" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F124" s="22" t="s">
+        <v>353</v>
       </c>
       <c r="G124" s="23"/>
       <c r="H124" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>336</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="D125" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="E125" s="21" t="s">
+        <v>338</v>
+      </c>
+      <c r="F125" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G125" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="H125" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C126" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D126" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="E126" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="F126" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="G126" s="22"/>
+      <c r="H126" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C127" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D127" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="E127" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="F127" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="G127" s="22"/>
+      <c r="H127" s="23" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C128" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D128" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E128" s="21"/>
+      <c r="F128" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="G128" s="23" t="s">
+        <v>368</v>
+      </c>
+      <c r="H128" s="22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C129" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D129" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E129" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F129" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G129" s="22"/>
+      <c r="H129" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E130" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F130" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="G130" s="23"/>
+      <c r="H130" s="22" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C131" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D131" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E131" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F131" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="G131" s="23"/>
+      <c r="H131" s="23" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C132" s="21" t="s">
+        <v>359</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E132" s="21" t="s">
+        <v>370</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="G132" s="23"/>
+      <c r="H132" s="23" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C133" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>377</v>
+      </c>
+      <c r="E133" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F133" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G133" s="23"/>
+      <c r="H133" s="22" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C134" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D134" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E134" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F134" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G134" s="23"/>
+      <c r="H134" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C135" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E135" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G135" s="23"/>
+      <c r="H135" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C136" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D136" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E136" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F136" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="G136" s="23"/>
+      <c r="H136" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D137" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E137" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F137" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G137" s="23"/>
+      <c r="H137" s="23" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C138" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D138" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E138" s="21" t="s">
+        <v>384</v>
+      </c>
+      <c r="F138" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="G138" s="23"/>
+      <c r="H138" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C139" s="21" t="s">
+        <v>376</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>378</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>391</v>
+      </c>
+      <c r="G139" s="23"/>
+      <c r="H139" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C140" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D140" s="21" t="s">
+        <v>394</v>
+      </c>
+      <c r="E140" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F140" s="23" t="s">
+        <v>379</v>
+      </c>
+      <c r="G140" s="23"/>
+      <c r="H140" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D141" s="21" t="s">
+        <v>397</v>
+      </c>
+      <c r="E141" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F141" s="23" t="s">
+        <v>382</v>
+      </c>
+      <c r="G141" s="23"/>
+      <c r="H141" s="23" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D142" s="21" t="s">
+        <v>304</v>
+      </c>
+      <c r="E142" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F142" s="23" t="s">
+        <v>306</v>
+      </c>
+      <c r="G142" s="23"/>
+      <c r="H142" s="22" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C143" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E143" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F143" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="G143" s="23"/>
+      <c r="H143" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C144" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F144" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="G144" s="23"/>
+      <c r="H144" s="23" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C145" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D145" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>399</v>
+      </c>
+      <c r="F145" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="G145" s="23"/>
+      <c r="H145" s="23" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C146" s="21" t="s">
+        <v>393</v>
+      </c>
+      <c r="D146" s="21" t="s">
+        <v>405</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="G146" s="23"/>
+      <c r="H146" s="23" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C147" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D147" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="E147" s="21"/>
+      <c r="F147" s="23" t="s">
+        <v>410</v>
+      </c>
+      <c r="G147" s="23"/>
+      <c r="H147" s="23" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C148" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>412</v>
+      </c>
+      <c r="E148" s="21" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="21">
-        <v>194</v>
-      </c>
-      <c r="B125" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C125" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D125" s="21" t="s">
+      <c r="F148" s="23" t="s">
         <v>414</v>
       </c>
-      <c r="E125" s="21" t="s">
+      <c r="G148" s="22"/>
+      <c r="H148" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="F125" s="23" t="s">
+    </row>
+    <row r="149" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C149" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D149" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E149" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="G125" s="22"/>
-      <c r="H125" s="23" t="s">
+      <c r="F149" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="G149" s="23"/>
+      <c r="H149" s="22" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="21">
-        <v>195</v>
-      </c>
-      <c r="B126" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C126" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D126" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E126" s="21" t="s">
+    <row r="150" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C150" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D150" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="E150" s="21" t="s">
+        <v>416</v>
+      </c>
+      <c r="F150" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="F126" s="22" t="s">
-        <v>344</v>
-      </c>
-      <c r="G126" s="23"/>
-      <c r="H126" s="22" t="s">
+      <c r="G150" s="22"/>
+      <c r="H150" s="22" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C151" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D151" s="21" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="21">
-        <v>196</v>
-      </c>
-      <c r="B127" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C127" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D127" s="21" t="s">
-        <v>335</v>
-      </c>
-      <c r="E127" s="21" t="s">
-        <v>418</v>
-      </c>
-      <c r="F127" s="22" t="s">
+      <c r="E151" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="G127" s="22"/>
-      <c r="H127" s="22" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="21">
-        <v>197</v>
-      </c>
-      <c r="B128" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C128" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D128" s="21" t="s">
+      <c r="F151" s="22" t="s">
         <v>421</v>
       </c>
-      <c r="E128" s="21" t="s">
+      <c r="G151" s="22"/>
+      <c r="H151" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="F128" s="22" t="s">
+    </row>
+    <row r="152" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C152" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D152" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E152" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="G128" s="22"/>
-      <c r="H128" s="22" t="s">
+      <c r="F152" s="22" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21">
-        <v>198</v>
-      </c>
-      <c r="B129" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E129" s="21" t="s">
+      <c r="G152" s="22" t="s">
         <v>425</v>
       </c>
-      <c r="F129" s="22" t="s">
+      <c r="H152" s="23" t="s">
         <v>426</v>
       </c>
-      <c r="G129" s="22" t="s">
+    </row>
+    <row r="153" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E153" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F153" s="22" t="s">
+        <v>424</v>
+      </c>
+      <c r="G153" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="H129" s="23" t="s">
+      <c r="H153" s="23" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="21">
-        <v>199</v>
-      </c>
-      <c r="B130" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C130" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D130" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E130" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F130" s="22" t="s">
-        <v>426</v>
-      </c>
-      <c r="G130" s="22" t="s">
+    <row r="154" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C154" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="D154" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="E154" s="21" t="s">
+        <v>423</v>
+      </c>
+      <c r="F154" s="22" t="s">
         <v>429</v>
       </c>
-      <c r="H130" s="23" t="s">
+      <c r="G154" s="22" t="s">
         <v>430</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="21">
-        <v>200</v>
-      </c>
-      <c r="B131" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>421</v>
-      </c>
-      <c r="E131" s="21" t="s">
-        <v>425</v>
-      </c>
-      <c r="F131" s="22" t="s">
+      <c r="H154" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="G131" s="22" t="s">
+    </row>
+    <row r="155" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C155" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D155" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="H131" s="23" t="s">
+      <c r="E155" s="21" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="21">
-        <v>201</v>
-      </c>
-      <c r="B132" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C132" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D132" s="21" t="s">
+      <c r="F155" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="E132" s="21" t="s">
+      <c r="G155" s="22"/>
+      <c r="H155" s="23" t="s">
         <v>435</v>
       </c>
-      <c r="F132" s="23" t="s">
+    </row>
+    <row r="156" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C156" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E156" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="F156" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="G132" s="22"/>
-      <c r="H132" s="23" t="s">
+      <c r="G156" s="23" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="21">
-        <v>202</v>
-      </c>
-      <c r="B133" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C133" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="D133" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="F133" s="22" t="s">
+      <c r="H156" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="G133" s="23" t="s">
+    </row>
+    <row r="157" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C157" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="D157" s="21" t="s">
+        <v>432</v>
+      </c>
+      <c r="E157" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="F157" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="G157" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="H133" s="22" t="s">
+      <c r="H157" s="22" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="21" t="s">
+        <v>408</v>
+      </c>
+      <c r="C158" s="21" t="s">
+        <v>409</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E158" s="21" t="s">
+        <v>433</v>
+      </c>
+      <c r="F158" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="G158" s="22" t="s">
+        <v>261</v>
+      </c>
+      <c r="H158" s="22" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="21">
-        <v>203</v>
-      </c>
-      <c r="B134" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="F134" s="22" t="s">
-        <v>438</v>
-      </c>
-      <c r="G134" s="23" t="s">
+    <row r="159" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="21" t="s">
         <v>441</v>
       </c>
-      <c r="H134" s="22" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="21">
-        <v>204</v>
-      </c>
-      <c r="B135" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="C135" s="21" t="s">
-        <v>411</v>
-      </c>
-      <c r="D135" s="21" t="s">
-        <v>261</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>435</v>
-      </c>
-      <c r="F135" s="22" t="s">
-        <v>262</v>
-      </c>
-      <c r="G135" s="22" t="s">
-        <v>263</v>
-      </c>
-      <c r="H135" s="22" t="s">
+      <c r="C159" s="21" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="21">
-        <v>205</v>
-      </c>
-      <c r="B136" s="21" t="s">
+      <c r="D159" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="C136" s="21" t="s">
+      <c r="E159" s="21" t="s">
         <v>444</v>
       </c>
-      <c r="D136" s="21" t="s">
+      <c r="F159" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="E136" s="21" t="s">
+      <c r="G159" s="22"/>
+      <c r="H159" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="F136" s="22" t="s">
+    </row>
+    <row r="160" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C160" s="21" t="s">
+        <v>442</v>
+      </c>
+      <c r="D160" s="21" t="s">
         <v>447</v>
       </c>
-      <c r="G136" s="22"/>
-      <c r="H136" s="23" t="s">
+      <c r="E160" s="21" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="21">
-        <v>207</v>
-      </c>
-      <c r="B137" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>444</v>
-      </c>
-      <c r="D137" s="21" t="s">
+      <c r="F160" s="22" t="s">
         <v>449</v>
       </c>
-      <c r="E137" s="21" t="s">
+      <c r="G160" s="23"/>
+      <c r="H160" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="F137" s="22" t="s">
+    </row>
+    <row r="161" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="21" t="s">
+        <v>441</v>
+      </c>
+      <c r="C161" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="G137" s="23"/>
-      <c r="H137" s="22" t="s">
+      <c r="D161" s="21" t="s">
+        <v>451</v>
+      </c>
+      <c r="E161" s="21" t="s">
+        <v>448</v>
+      </c>
+      <c r="F161" s="22" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="21">
-        <v>209</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>443</v>
-      </c>
-      <c r="C138" s="21" t="s">
+      <c r="G161" s="22" t="s">
         <v>453</v>
       </c>
-      <c r="D138" s="21" t="s">
-        <v>453</v>
-      </c>
-      <c r="E138" s="21" t="s">
-        <v>450</v>
-      </c>
-      <c r="F138" s="22" t="s">
+      <c r="H161" s="22" t="s">
         <v>454</v>
-      </c>
-      <c r="G138" s="22" t="s">
-        <v>455</v>
-      </c>
-      <c r="H138" s="22" t="s">
-        <v>456</v>
       </c>
     </row>
   </sheetData>

--- a/docs/2.项目规划/《游趣》项目_测试用例.xlsx
+++ b/docs/2.项目规划/《游趣》项目_测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1058" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1122" uniqueCount="541">
   <si>
     <t>用例ＩＤ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -282,11 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1、成功安装味+APP
-2、成功打开APP，进入欢迎页</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>输入被注册过的用户名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -512,12 +507,6 @@
   </si>
   <si>
     <t>显示定位信息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击定位图标
-2、点击切换城市
-3、点击相应城市</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -805,10 +794,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>喜欢</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>存在游记 相册 视频等</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -839,10 +824,6 @@
   </si>
   <si>
     <t>存在相册</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>点开相册按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1140,11 +1121,6 @@
   </si>
   <si>
     <t>发帖相关消息</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、点击同城页面
-2、查看用户的帖子</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2280,6 +2256,50 @@
   <si>
     <t>1、若该推荐信息为轮播图，则前台显示的图片为选中的图片；
 2、若该推荐信息为热点列表，则前台显示的缩略图为选中的图片</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击定位图标
+2、点击切换城市
+3、点击或者搜索相应城市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入你的评论</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收藏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击相册按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码图片正常显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>搜索框正常显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、点击同游页面
+2、查看用户的帖子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、成功安装游趣APP
+2、成功打开APP，进入欢迎页</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2756,8 +2776,8 @@
   <dimension ref="A1:H162"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="42" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2819,9 +2839,11 @@
       <c r="F2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="G2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H2" s="3" t="s">
-        <v>65</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -2861,7 +2883,7 @@
         <v>28</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -2887,10 +2909,10 @@
         <v>28</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>37</v>
@@ -2899,7 +2921,7 @@
         <v>41</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -2977,7 +2999,7 @@
         <v>45</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3081,7 +3103,7 @@
         <v>27</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3089,25 +3111,25 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3115,25 +3137,25 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3141,25 +3163,25 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3167,25 +3189,25 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3193,25 +3215,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H17" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3219,25 +3241,25 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>248</v>
-      </c>
       <c r="E18" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3245,25 +3267,25 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3271,25 +3293,25 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3297,25 +3319,25 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3323,25 +3345,25 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3349,25 +3371,25 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="H23" s="3" t="s">
         <v>232</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3375,25 +3397,25 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3401,25 +3423,25 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3441,7 +3463,9 @@
       <c r="F26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G26" s="3"/>
+      <c r="G26" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H26" s="3" t="s">
         <v>61</v>
       </c>
@@ -3465,7 +3489,9 @@
       <c r="F27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="3"/>
+      <c r="G27" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H27" s="3" t="s">
         <v>62</v>
       </c>
@@ -3489,7 +3515,9 @@
       <c r="F28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="3"/>
+      <c r="G28" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H28" s="3" t="s">
         <v>57</v>
       </c>
@@ -3511,9 +3539,11 @@
         <v>59</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H29" s="3" t="s">
         <v>63</v>
       </c>
@@ -3529,17 +3559,19 @@
         <v>51</v>
       </c>
       <c r="D30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="H30" s="3" t="s">
         <v>122</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3547,25 +3579,25 @@
         <v>30</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H31" s="3" t="s">
         <v>259</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3573,25 +3605,25 @@
         <v>31</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="G32" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H32" s="3" t="s">
         <v>265</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3599,25 +3631,25 @@
         <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H33" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3625,25 +3657,25 @@
         <v>33</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>271</v>
+        <v>539</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3651,25 +3683,25 @@
         <v>34</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3677,25 +3709,25 @@
         <v>35</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>80</v>
+        <v>534</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3703,25 +3735,25 @@
         <v>36</v>
       </c>
       <c r="B37" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H37" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3729,25 +3761,25 @@
         <v>37</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="G38" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H38" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3755,25 +3787,25 @@
         <v>38</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3781,25 +3813,25 @@
         <v>39</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3807,25 +3839,25 @@
         <v>40</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3833,25 +3865,25 @@
         <v>41</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H42" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3859,25 +3891,25 @@
         <v>42</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3885,25 +3917,25 @@
         <v>43</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="H44" s="3" t="s">
         <v>309</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3911,25 +3943,25 @@
         <v>44</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>315</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3937,25 +3969,25 @@
         <v>45</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H46" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3963,25 +3995,25 @@
         <v>46</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D47" s="1" t="s">
-        <v>325</v>
-      </c>
       <c r="E47" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H47" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -3989,25 +4021,25 @@
         <v>47</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4015,25 +4047,25 @@
         <v>48</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4041,25 +4073,25 @@
         <v>49</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D50" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="G50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H50" s="3" t="s">
         <v>113</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4067,25 +4099,25 @@
         <v>50</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="G51" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="H51" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4093,25 +4125,25 @@
         <v>51</v>
       </c>
       <c r="B52" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="E52" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4119,25 +4151,25 @@
         <v>52</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4145,25 +4177,25 @@
         <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4171,25 +4203,25 @@
         <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4197,25 +4229,25 @@
         <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4223,25 +4255,25 @@
         <v>56</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4249,25 +4281,25 @@
         <v>57</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F58" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="H58" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4275,25 +4307,25 @@
         <v>58</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D59" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F59" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="H59" s="3" t="s">
         <v>109</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4301,25 +4333,25 @@
         <v>59</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4327,25 +4359,25 @@
         <v>60</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>342</v>
-      </c>
       <c r="G61" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4353,23 +4385,25 @@
         <v>61</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="G62" s="3"/>
+      <c r="G62" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H62" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4377,23 +4411,25 @@
         <v>62</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G63" s="3"/>
+        <v>112</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H63" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4401,23 +4437,25 @@
         <v>63</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="G64" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H64" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4425,23 +4463,25 @@
         <v>64</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D65" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="E65" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G65" s="3"/>
+      <c r="G65" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H65" s="3" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4449,23 +4489,25 @@
         <v>65</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="G66" s="3"/>
+        <v>536</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>108</v>
+      </c>
       <c r="H66" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4473,25 +4515,25 @@
         <v>66</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G67" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="H67" s="3" t="s">
         <v>194</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4499,23 +4541,25 @@
         <v>67</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="G68" s="3"/>
+        <v>155</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H68" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4523,25 +4567,25 @@
         <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F69" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="H69" s="3" t="s">
         <v>160</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4549,25 +4593,25 @@
         <v>69</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4575,23 +4619,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D71" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H71" s="3" t="s">
         <v>164</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4599,23 +4645,25 @@
         <v>71</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="G72" s="3"/>
+        <v>340</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H72" s="3" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4623,23 +4671,25 @@
         <v>72</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D73" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H73" s="3" t="s">
         <v>168</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4647,25 +4697,25 @@
         <v>73</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G74" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="E74" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F74" s="3" t="s">
+      <c r="H74" s="3" t="s">
         <v>172</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4673,25 +4723,25 @@
         <v>74</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4699,25 +4749,25 @@
         <v>75</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="H76" s="3" t="s">
         <v>209</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4725,23 +4775,25 @@
         <v>76</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="G77" s="3"/>
+        <v>211</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H77" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4749,25 +4801,25 @@
         <v>77</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4775,25 +4827,25 @@
         <v>78</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4801,25 +4853,25 @@
         <v>79</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="H80" s="3" t="s">
         <v>180</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4827,25 +4879,25 @@
         <v>80</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D81" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="F81" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>223</v>
-      </c>
       <c r="G81" s="3" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4853,25 +4905,25 @@
         <v>81</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4879,25 +4931,25 @@
         <v>82</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4905,25 +4957,25 @@
         <v>83</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4931,25 +4983,25 @@
         <v>84</v>
       </c>
       <c r="B85" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H85" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4957,25 +5009,25 @@
         <v>85</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C86" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="D86" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F86" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H86" s="3" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -4983,25 +5035,25 @@
         <v>86</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D87" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="H87" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="F87" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G87" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5009,25 +5061,25 @@
         <v>87</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="E88" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H88" s="3" t="s">
-        <v>354</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5035,25 +5087,25 @@
         <v>88</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5061,20 +5113,25 @@
         <v>89</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>537</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="G90" s="3"/>
+        <v>354</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H90" s="3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5082,21 +5139,23 @@
         <v>90</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="G91" s="3"/>
+      <c r="G91" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H91" s="3" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5104,22 +5163,25 @@
         <v>91</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>58</v>
       </c>
+      <c r="E92" s="1" t="s">
+        <v>538</v>
+      </c>
       <c r="F92" s="3" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
     </row>
     <row r="93" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5127,23 +5189,25 @@
         <v>92</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="G93" s="3"/>
+        <v>365</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H93" s="3" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5151,22 +5215,22 @@
         <v>93</v>
       </c>
       <c r="B94" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="F94" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="G94" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H94" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5174,22 +5238,22 @@
         <v>94</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F95" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H95" s="3" t="s">
         <v>36</v>
@@ -5200,22 +5264,22 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="F96" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H96" s="3" t="s">
         <v>32</v>
@@ -5226,25 +5290,25 @@
         <v>96</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F97" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="G97" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5252,22 +5316,22 @@
         <v>97</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="F98" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>377</v>
-      </c>
       <c r="G98" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H98" s="3" t="s">
         <v>32</v>
@@ -5278,20 +5342,22 @@
         <v>98</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="G99" s="3"/>
+        <v>375</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H99" s="3" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5299,22 +5365,22 @@
         <v>99</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C100" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F100" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D100" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="G100" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>32</v>
@@ -5325,25 +5391,25 @@
         <v>100</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F101" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="G101" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5351,22 +5417,22 @@
         <v>101</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>32</v>
@@ -5377,22 +5443,22 @@
         <v>102</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H103" s="3" t="s">
         <v>32</v>
@@ -5403,22 +5469,22 @@
         <v>103</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H104" s="3" t="s">
         <v>32</v>
@@ -5429,25 +5495,25 @@
         <v>104</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5455,23 +5521,25 @@
         <v>105</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="G106" s="3"/>
+        <v>387</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H106" s="3" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5479,23 +5547,25 @@
         <v>106</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G107" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H107" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="108" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5503,23 +5573,25 @@
         <v>107</v>
       </c>
       <c r="B108" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H108" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5527,23 +5599,25 @@
         <v>108</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D109" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="E109" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H109" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5551,25 +5625,25 @@
         <v>109</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H110" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5577,22 +5651,22 @@
         <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H111" s="3" t="s">
         <v>32</v>
@@ -5603,25 +5677,25 @@
         <v>111</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
     </row>
     <row r="113" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5629,22 +5703,22 @@
         <v>112</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H113" s="3" t="s">
         <v>32</v>
@@ -5655,23 +5729,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="G114" s="3"/>
+        <v>411</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H114" s="3" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="115" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5679,23 +5755,25 @@
         <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="G115" s="3"/>
+        <v>415</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H115" s="3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
     </row>
     <row r="116" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5703,23 +5781,25 @@
         <v>115</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G116" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H116" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5727,23 +5807,25 @@
         <v>116</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E117" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H117" s="3" t="s">
         <v>419</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="118" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5751,23 +5833,25 @@
         <v>117</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="G118" s="3"/>
+        <v>423</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H118" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="119" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5775,23 +5859,25 @@
         <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="E119" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="F119" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="D119" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="F119" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G119" s="3"/>
+      <c r="G119" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H119" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5799,23 +5885,25 @@
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="E120" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F120" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="G120" s="3"/>
+        <v>428</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H120" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
     </row>
     <row r="121" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5823,23 +5911,25 @@
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="E121" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F121" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="G121" s="3"/>
+        <v>431</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H121" s="3" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="122" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5847,23 +5937,25 @@
         <v>121</v>
       </c>
       <c r="B122" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>430</v>
-      </c>
       <c r="F122" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G122" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H122" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="123" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5871,23 +5963,25 @@
         <v>122</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="G123" s="3"/>
+        <v>434</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H123" s="3" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5895,23 +5989,25 @@
         <v>123</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="G124" s="3"/>
+        <v>437</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H124" s="3" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5919,25 +6015,25 @@
         <v>124</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5945,23 +6041,25 @@
         <v>125</v>
       </c>
       <c r="B126" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H126" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="F126" s="3" t="s">
-        <v>450</v>
-      </c>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="127" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5969,23 +6067,25 @@
         <v>126</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C127" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="D127" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>452</v>
-      </c>
       <c r="E127" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H127" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -5993,22 +6093,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>58</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="129" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6016,23 +6116,25 @@
         <v>128</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G129" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H129" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6040,23 +6142,25 @@
         <v>129</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G130" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H130" s="3" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="131" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6064,23 +6168,25 @@
         <v>130</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="G131" s="3"/>
+        <v>454</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H131" s="3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
     </row>
     <row r="132" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6088,23 +6194,25 @@
         <v>131</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E132" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H132" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="F132" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="133" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6112,23 +6220,25 @@
         <v>132</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="G133" s="3"/>
+        <v>461</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H133" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6136,23 +6246,25 @@
         <v>133</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C134" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>468</v>
-      </c>
       <c r="E134" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H134" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="135" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6160,23 +6272,25 @@
         <v>134</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G135" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H135" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="136" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6184,23 +6298,25 @@
         <v>135</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G136" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H136" s="3" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
     </row>
     <row r="137" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6208,23 +6324,25 @@
         <v>136</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="G137" s="3"/>
+        <v>468</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H137" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="138" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6232,23 +6350,25 @@
         <v>137</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E138" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H138" s="3" t="s">
         <v>471</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>475</v>
-      </c>
-      <c r="G138" s="3"/>
-      <c r="H138" s="3" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="139" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6256,23 +6376,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="G139" s="3"/>
+        <v>473</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H139" s="3" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
     </row>
     <row r="140" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6280,23 +6402,25 @@
         <v>139</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="G140" s="3"/>
+        <v>461</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H140" s="3" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="141" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6304,23 +6428,25 @@
         <v>140</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C141" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H141" s="3" t="s">
         <v>480</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="F141" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="G141" s="3"/>
-      <c r="H141" s="3" t="s">
-        <v>485</v>
       </c>
     </row>
     <row r="142" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6328,23 +6454,25 @@
         <v>141</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="G142" s="3"/>
+        <v>391</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H142" s="3" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="143" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6352,23 +6480,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G143" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H143" s="3" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
     </row>
     <row r="144" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6376,23 +6506,25 @@
         <v>143</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>488</v>
-      </c>
-      <c r="G144" s="3"/>
+        <v>483</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H144" s="3" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
     </row>
     <row r="145" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6400,23 +6532,25 @@
         <v>144</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E145" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H145" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>490</v>
-      </c>
-      <c r="G145" s="3"/>
-      <c r="H145" s="3" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="146" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6424,23 +6558,25 @@
         <v>145</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>493</v>
-      </c>
-      <c r="G146" s="3"/>
+        <v>488</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H146" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="147" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6448,20 +6584,22 @@
         <v>146</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="G147" s="3"/>
+        <v>492</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H147" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="148" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6469,23 +6607,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="E148" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="F148" s="3" t="s">
         <v>496</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>501</v>
-      </c>
-      <c r="G148" s="3"/>
+      <c r="G148" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H148" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="149" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6493,23 +6633,25 @@
         <v>148</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="G149" s="3"/>
+        <v>426</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H149" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6517,23 +6659,25 @@
         <v>149</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>505</v>
-      </c>
-      <c r="G150" s="3"/>
+        <v>500</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H150" s="3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
     </row>
     <row r="151" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6541,23 +6685,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>508</v>
-      </c>
-      <c r="G151" s="3"/>
+        <v>503</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>531</v>
+      </c>
       <c r="H151" s="3" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
     </row>
     <row r="152" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6565,25 +6711,25 @@
         <v>151</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C152" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F152" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="G152" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6591,25 +6737,25 @@
         <v>152</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C153" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F153" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="G153" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="154" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6617,25 +6763,25 @@
         <v>153</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E154" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H154" s="3" t="s">
         <v>510</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="G154" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="H154" s="3" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="155" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6643,23 +6789,23 @@
         <v>154</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G155" s="3"/>
       <c r="H155" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="156" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6667,25 +6813,25 @@
         <v>155</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C156" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H156" s="3" t="s">
         <v>516</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>516</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>517</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="G156" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="H156" s="3" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="157" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6693,25 +6839,25 @@
         <v>156</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6719,25 +6865,25 @@
         <v>157</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="D158" s="1" t="s">
         <v>58</v>
       </c>
       <c r="E158" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="H158" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>366</v>
-      </c>
-      <c r="G158" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="H158" s="3" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6745,23 +6891,25 @@
         <v>158</v>
       </c>
       <c r="B159" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D159" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="H159" s="3" t="s">
         <v>523</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>524</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>525</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="G159" s="3"/>
-      <c r="H159" s="3" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6769,23 +6917,25 @@
         <v>159</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C160" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="D160" s="1" t="s">
         <v>524</v>
       </c>
-      <c r="D160" s="1" t="s">
-        <v>529</v>
-      </c>
       <c r="E160" s="1" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="F160" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="G160" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="G160" s="3"/>
       <c r="H160" s="3" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="161" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
@@ -6793,25 +6943,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="E161" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H161" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="G161" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H161" s="3" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="162" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.15">
